--- a/Phylo_Plate.xlsx
+++ b/Phylo_Plate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Git\arboles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA085896-1971-46CE-8DC7-9B6F3DB33A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F470A-EDDF-441F-9A38-C7361DCC6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28770" yWindow="180" windowWidth="14220" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28770" yWindow="165" windowWidth="14220" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="157">
   <si>
     <t>Well</t>
   </si>
@@ -327,30 +327,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>PLQA1</t>
-  </si>
-  <si>
-    <t>Plethodon quadridigitata</t>
-  </si>
-  <si>
-    <t>PLQA2</t>
-  </si>
-  <si>
-    <t>PLQA3</t>
-  </si>
-  <si>
-    <t>AMGR1</t>
-  </si>
-  <si>
-    <t>AMGR2</t>
-  </si>
-  <si>
-    <t>AMGR3</t>
-  </si>
-  <si>
-    <t>Ambystoma gracile</t>
-  </si>
-  <si>
     <t>AMMA1</t>
   </si>
   <si>
@@ -420,9 +396,6 @@
     <t>GRR</t>
   </si>
   <si>
-    <t>Sternberg</t>
-  </si>
-  <si>
     <t>NEMA1</t>
   </si>
   <si>
@@ -477,23 +450,59 @@
     <t>Emel</t>
   </si>
   <si>
-    <t>Plethodon vehiculum</t>
-  </si>
-  <si>
-    <t>PLVE1</t>
-  </si>
-  <si>
-    <t>PLVE2</t>
-  </si>
-  <si>
-    <t>PLVE3</t>
+    <t>PLGR1</t>
+  </si>
+  <si>
+    <t>PLGR2</t>
+  </si>
+  <si>
+    <t>PLGR3</t>
+  </si>
+  <si>
+    <t>Plethodon grobmani</t>
+  </si>
+  <si>
+    <t>NOVI1</t>
+  </si>
+  <si>
+    <t>NOVI2</t>
+  </si>
+  <si>
+    <t>NOVI3</t>
+  </si>
+  <si>
+    <t>Notophthalmus viridescens</t>
+  </si>
+  <si>
+    <t>Salamandridae</t>
+  </si>
+  <si>
+    <t>SMNH</t>
+  </si>
+  <si>
+    <t>WDFW</t>
+  </si>
+  <si>
+    <t>USFS</t>
+  </si>
+  <si>
+    <t>PLLA1</t>
+  </si>
+  <si>
+    <t>PLLA2</t>
+  </si>
+  <si>
+    <t>PLLA3</t>
+  </si>
+  <si>
+    <t>Plethodon larselli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,13 +516,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -528,8 +549,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +859,7 @@
         <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -846,13 +870,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,13 +887,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,13 +904,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,13 +921,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,13 +938,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,13 +955,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,13 +972,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +989,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,166 +1006,169 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" t="s">
-        <v>130</v>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,13 +1176,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,13 +1193,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,13 +1210,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,13 +1227,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
+        <v>146</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,13 +1244,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
+        <v>146</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,13 +1261,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
+        <v>146</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,13 +1278,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>107</v>
+        <v>147</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,13 +1295,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
+        <v>147</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,598 +1312,628 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C64" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>130</v>
+      <c r="E64" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,16 +1941,16 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,16 +1958,16 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,16 +1975,16 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,16 +1992,16 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,16 +2009,16 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,16 +2026,16 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,16 +2043,16 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,16 +2060,16 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,16 +2077,16 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,16 +2094,16 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,16 +2111,16 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,16 +2128,16 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,16 +2145,16 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,16 +2162,16 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,16 +2179,16 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,16 +2196,16 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,16 +2213,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,16 +2230,16 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,16 +2247,16 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,16 +2264,16 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,16 +2281,16 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,16 +2298,16 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,16 +2315,16 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,16 +2332,16 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,16 +2349,16 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,16 +2366,16 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,16 +2383,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,16 +2400,16 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,16 +2417,16 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,16 +2434,16 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,16 +2451,16 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,16 +2468,16 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,20 +2485,21 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>